--- a/data/trans_camb/P38A-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P38A-Edad-trans_camb.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">

--- a/data/trans_camb/P38A-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P38A-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,49</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,44</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,25; 8,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,73; 3,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,44; 9,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,7; 5,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,03; 7,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,3; 2,1</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,81%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,43%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,46%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,67; 17,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,79; 6,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,94; 15,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,59; 9,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,29; 12,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,07; 3,47</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,12</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,13</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,96</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,24</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,18</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,68; -0,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,64; -3,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,46; 3,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,7; -5,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,26; -0,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,28; -6,11</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,52%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,43%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,51%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,55%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,09%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,82; -0,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,42; -4,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,97; 3,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,26; -6,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,28; -0,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,97; -7,38</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,16</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,68</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,97</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,48</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,08</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,12; -0,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,58; -0,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,7; -1,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,18; -3,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,97; -2,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,85; -3,43</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,73%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,97%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,44%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,97%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,75%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,21; -0,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,92; -0,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,11; -1,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,73; -4,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,61; -2,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,76; -3,86</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,05</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,92</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,96</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,37; -0,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,36; -2,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,57; 4,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,95; 4,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,71; 0,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,19; -0,04</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,36%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,67%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,49%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,3%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,86; -0,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,43; -2,75</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,67; 5,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,03; 5,33</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,96; 1,08</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,55; -0,04</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,47</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,16; 1,72</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,75; 0,64</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,88; 2,02</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,82; 2,18</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,25; 1,31</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,52; 0,6</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,63%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,74%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,58%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,35%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,09%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,55%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,36; 1,84</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,01; 0,67</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,04; 2,14</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,94; 2,32</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,39; 1,39</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,64; 0,64</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,44; 2,21</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,77; 1,76</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,7; 2,58</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,75; 1,61</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 1,9</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,16; 1,03</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,14%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,2%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,18%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,46; 2,29</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,8; 1,83</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,7; 2,67</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,78; 1,67</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,55; 1,97</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,19; 1,06</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,3</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,1</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,52; -0,01</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,48; -1,06</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,29; 1,63</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,96; 0,64</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,9; 0,34</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,23; -0,52</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,03%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,87%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,32%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,86%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,4%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,07; -0,02</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,75; -1,26</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,42; 1,82</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,28; 0,72</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 0,39</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,81; -0,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P38A-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P38A-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,49</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,21</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,44</t>
+          <t>-1,76</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,73; 3,5</t>
+          <t>-12,73; 7,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,7; 5,99</t>
+          <t>-8,71; 8,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 2,1</t>
+          <t>-8,31; 4,71</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-11,81%</t>
+          <t>-5,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,43%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -702,7 +702,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-7,46%</t>
+          <t>-2,95%</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-27,79; 6,62</t>
+          <t>-22,61; 13,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,59; 9,8</t>
+          <t>-13,06; 14,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -740,14 +740,14 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-17,07; 3,47</t>
+          <t>-13,76; 8,06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-10,13</t>
+          <t>-8,93</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -772,7 +772,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-10,96</t>
+          <t>-18,1</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-10,18</t>
+          <t>-13,5</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,64; -3,76</t>
+          <t>-15,33; -2,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,7; -5,45</t>
+          <t>-41,45; -5,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,28; -6,11</t>
+          <t>-29,88; -6,38</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-12,43%</t>
+          <t>-10,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-12,55%</t>
+          <t>-20,71%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-12,09%</t>
+          <t>-16,02%</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-20,42; -4,93</t>
+          <t>-18,56; -3,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,26; -6,31</t>
+          <t>-47,48; -6,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -896,14 +896,14 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,97; -7,38</t>
+          <t>-35,46; -7,71</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,16</t>
+          <t>-4,06</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -928,7 +928,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-6,97</t>
+          <t>-6,33</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-6,08</t>
+          <t>-5,27</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,58; -0,74</t>
+          <t>-8,36; 0,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,18; -3,84</t>
+          <t>-9,4; -3,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,85; -3,43</t>
+          <t>-7,89; -2,73</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-5,97%</t>
+          <t>-4,71%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-7,44%</t>
+          <t>-6,75%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-6,75%</t>
+          <t>-5,84%</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,92; -0,86</t>
+          <t>-9,49; 0,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,73; -4,14</t>
+          <t>-9,96; -3,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1052,14 +1052,14 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,76; -3,86</t>
+          <t>-8,75; -3,08</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-9,92</t>
+          <t>-28,16</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,96</t>
+          <t>-14,49</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-31,36; -2,58</t>
+          <t>-65,76; -2,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 4,77</t>
+          <t>-0,47; 5,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,19; -0,04</t>
+          <t>-49,69; 0,41</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-10,67%</t>
+          <t>-30,31%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-4,3%</t>
+          <t>-15,73%</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-33,43; -2,75</t>
+          <t>-70,21; -2,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 5,33</t>
+          <t>-0,5; 5,76</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1208,14 +1208,14 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-18,55; -0,04</t>
+          <t>-54,09; 0,42</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-1,27</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 0,64</t>
+          <t>-5,48; 0,87</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 2,18</t>
+          <t>-2,62; 2,27</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 0,6</t>
+          <t>-3,26; 0,81</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-2,74%</t>
+          <t>-2,42%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-0,35%</t>
+          <t>-0,21%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-1,55%</t>
+          <t>-1,33%</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 0,67</t>
+          <t>-5,66; 0,94</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 2,32</t>
+          <t>-2,69; 2,43</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -1364,14 +1364,14 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 0,64</t>
+          <t>-3,39; 0,86</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>1,12</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 2,21</t>
+          <t>-2,42; 2,51</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 1,76</t>
+          <t>-3,19; 1,5</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 2,58</t>
+          <t>0,16; 5,14</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 1,61</t>
+          <t>0,7; 5,85</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 1,9</t>
+          <t>-0,4; 2,92</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 1,03</t>
+          <t>-0,45; 3,17</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>-0,06%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-0,14%</t>
+          <t>-1,07%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-0,2%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-0,18%</t>
+          <t>1,16%</t>
         </is>
       </c>
     </row>
@@ -1495,39 +1495,39 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 2,29</t>
+          <t>-2,43; 2,6</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 1,83</t>
+          <t>-3,24; 1,55</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 2,67</t>
+          <t>0,17; 5,52</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 1,67</t>
+          <t>0,7; 6,27</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 1,97</t>
+          <t>-0,41; 3,04</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 1,06</t>
+          <t>-0,46; 3,3</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-3,3</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-2,39</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>-0,99</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,52; -0,01</t>
+          <t>-1,73; 3,77</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-7,48; -1,06</t>
+          <t>-1,08; 4,07</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,63</t>
+          <t>-2,52; 1,36</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 0,64</t>
+          <t>-4,27; -0,68</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 0,34</t>
+          <t>-1,47; 1,46</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,23; -0,52</t>
+          <t>-2,33; 0,61</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-2,03%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-3,87%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>-0,33%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-1,32%</t>
+          <t>-2,42%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-0,86%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-2,4%</t>
+          <t>-1,0%</t>
         </is>
       </c>
     </row>
@@ -1651,44 +1651,201 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-1,76; 3,98</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-1,09; 4,3</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-2,55; 1,39</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-4,28; -0,69</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-1,49; 1,5</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-2,35; 0,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-1,73</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-7,66</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-1,43</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-0,75</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-4,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-3,52; -0,01</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-25,55; -1,28</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-1,29; 1,63</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-7,41; 1,09</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-1,9; 0,34</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-14,56; -0,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>-2,03%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-8,97%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,18%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>-1,6%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-0,86%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-5,07%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-4,07; -0,02</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-8,75; -1,26</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>-29,95; -1,49</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
         <is>
           <t>-1,42; 1,82</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>-3,28; 0,72</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>-8,21; 1,22</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-2,15; 0,39</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-4,81; -0,59</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-16,67; -0,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>

--- a/data/trans_camb/P38A-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P38A-Edad-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 8,99</t>
+          <t>-3,83; 9,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 7,04</t>
+          <t>-12,96; 7,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 9,53</t>
+          <t>-3,6; 9,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 8,85</t>
+          <t>-7,1; 9,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 7,22</t>
+          <t>-2,35; 8,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 4,71</t>
+          <t>-9,24; 4,82</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 17,54</t>
+          <t>-6,53; 18,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-22,61; 13,22</t>
+          <t>-22,73; 13,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 15,64</t>
+          <t>-5,43; 15,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 14,38</t>
+          <t>-10,82; 14,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 12,63</t>
+          <t>-3,77; 14,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-13,76; 8,06</t>
+          <t>-15,23; 8,09</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,68; -0,77</t>
+          <t>-10,62; -1,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,33; -2,74</t>
+          <t>-15,59; -2,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 3,25</t>
+          <t>-4,0; 3,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-41,45; -5,52</t>
+          <t>-44,2; -5,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,26; -0,28</t>
+          <t>-6,29; -0,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-29,88; -6,38</t>
+          <t>-29,47; -5,99</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,82; -0,98</t>
+          <t>-12,84; -1,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-18,56; -3,37</t>
+          <t>-18,73; -3,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 3,83</t>
+          <t>-4,6; 4,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-47,48; -6,38</t>
+          <t>-49,7; -6,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,28; -0,33</t>
+          <t>-7,39; -0,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,46; -7,71</t>
+          <t>-35,23; -7,12</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,12; -0,15</t>
+          <t>-7,96; -0,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 0,37</t>
+          <t>-8,66; -0,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,7; -1,8</t>
+          <t>-7,69; -1,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,4; -3,14</t>
+          <t>-9,37; -3,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,97; -2,02</t>
+          <t>-6,95; -1,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,89; -2,73</t>
+          <t>-7,87; -2,69</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,21; -0,18</t>
+          <t>-9,06; -0,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 0,44</t>
+          <t>-9,79; -0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,11; -1,97</t>
+          <t>-8,1; -1,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,96; -3,48</t>
+          <t>-9,88; -3,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-7,61; -2,27</t>
+          <t>-7,6; -2,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-8,75; -3,08</t>
+          <t>-8,64; -3,02</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,37; -0,61</t>
+          <t>-7,46; -0,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-65,76; -2,52</t>
+          <t>-63,4; -2,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 4,79</t>
+          <t>-1,99; 4,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 5,15</t>
+          <t>-0,54; 5,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 0,97</t>
+          <t>-3,86; 1,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-49,69; 0,41</t>
+          <t>-46,17; 0,14</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,86; -0,68</t>
+          <t>-7,9; -0,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-70,21; -2,7</t>
+          <t>-68,63; -2,54</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 5,38</t>
+          <t>-2,12; 5,04</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 5,76</t>
+          <t>-0,57; 5,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 1,08</t>
+          <t>-4,15; 1,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-54,09; 0,42</t>
+          <t>-50,28; 0,14</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 1,72</t>
+          <t>-5,03; 1,75</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 0,87</t>
+          <t>-5,41; 1,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 2,02</t>
+          <t>-3,8; 2,01</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 2,27</t>
+          <t>-2,76; 2,24</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 1,31</t>
+          <t>-3,57; 1,14</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 0,81</t>
+          <t>-3,31; 0,61</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 1,84</t>
+          <t>-5,2; 1,85</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 0,94</t>
+          <t>-5,65; 1,12</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 2,14</t>
+          <t>-3,93; 2,15</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 2,43</t>
+          <t>-2,84; 2,4</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 1,39</t>
+          <t>-3,71; 1,21</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 0,86</t>
+          <t>-3,46; 0,65</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 2,51</t>
+          <t>-2,62; 2,21</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 1,5</t>
+          <t>-3,26; 1,31</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,16; 5,14</t>
+          <t>0,15; 5,14</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,7; 5,85</t>
+          <t>0,51; 5,62</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 2,92</t>
+          <t>-0,36; 2,97</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 3,17</t>
+          <t>-0,36; 3,21</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 2,6</t>
+          <t>-2,65; 2,29</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 1,55</t>
+          <t>-3,3; 1,37</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>0,17; 5,52</t>
+          <t>0,15; 5,52</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>0,7; 6,27</t>
+          <t>0,53; 6,02</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 3,04</t>
+          <t>-0,37; 3,12</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 3,3</t>
+          <t>-0,37; 3,36</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 3,77</t>
+          <t>-1,6; 3,78</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 4,07</t>
+          <t>-0,9; 4,63</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 1,36</t>
+          <t>-2,4; 1,44</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,27; -0,68</t>
+          <t>-4,2; -0,54</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 1,46</t>
+          <t>-1,4; 1,52</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 0,61</t>
+          <t>-2,43; 0,6</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 3,98</t>
+          <t>-1,57; 4,0</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 4,3</t>
+          <t>-0,9; 4,92</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 1,39</t>
+          <t>-2,44; 1,47</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-4,28; -0,69</t>
+          <t>-4,23; -0,58</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 1,5</t>
+          <t>-1,42; 1,56</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 0,63</t>
+          <t>-2,47; 0,61</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-3,52; -0,01</t>
+          <t>-3,49; 0,11</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-25,55; -1,28</t>
+          <t>-24,37; -0,99</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,63</t>
+          <t>-1,34; 1,6</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 1,09</t>
+          <t>-8,07; 1,06</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 0,34</t>
+          <t>-1,91; 0,37</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-14,56; -0,77</t>
+          <t>-14,0; -0,63</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-4,07; -0,02</t>
+          <t>-4,06; 0,14</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-29,95; -1,49</t>
+          <t>-28,58; -1,16</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 1,82</t>
+          <t>-1,48; 1,81</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 1,22</t>
+          <t>-8,98; 1,18</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 0,39</t>
+          <t>-2,16; 0,43</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-16,67; -0,88</t>
+          <t>-15,94; -0,73</t>
         </is>
       </c>
     </row>
